--- a/testData/proposalsTest8_renameThenCreate2/2023.024M.A.v1.Bunyaviricetes.xlsx
+++ b/testData/proposalsTest8_renameThenCreate2/2023.024M.A.v1.Bunyaviricetes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtish/Documents/ICTV/validate_proposals/testData/proposalsTest8_renameThenCreate2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtish/Documents/ICTV/taxon_proposal_qc_and_load/testData/proposalsTest8_renameThenCreate2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B201B3DE-4798-AF4B-821F-6DB11E863606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38835F4-5580-F848-BA81-90C2C9394E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{94A59F7B-7A42-3941-BED7-E7ACB004C4FA}"/>
   </bookViews>
@@ -2510,9 +2510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2550,7 +2550,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2656,7 +2656,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2798,7 +2798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2840,9 +2840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2286CF-D255-A24B-BEAA-53A574258AAC}">
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN5" sqref="AN5"/>
+      <selection pane="bottomLeft" activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="AE1" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="AE1" ca="1">MID(CELL("filename",'Proposal Template'!$B$1),SEARCH("[",CELL("filename",'Proposal Template'!$B$1))+1, SEARCH("]",CELL("filename",'Proposal Template'!$B$1))-SEARCH("[",CELL("filename",'Proposal Template'!$B$1))-1)</f>
-        <v>2023.024M.A.v1.Bunyaviricetes(26).xlsx</v>
+        <v>2023.024M.A.v1.Bunyaviricetes.xlsx</v>
       </c>
       <c r="AF1" s="23"/>
       <c r="AG1" s="16"/>
